--- a/data/financial_statements/sofp/UHS.xlsx
+++ b/data/financial_statements/sofp/UHS.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,144 +601,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>74571000</v>
+        <v>75000000</v>
       </c>
       <c r="C2">
-        <v>132658000</v>
+        <v>133000000</v>
       </c>
       <c r="D2">
-        <v>105999000</v>
+        <v>106000000</v>
       </c>
       <c r="E2">
-        <v>115301000</v>
+        <v>115000000</v>
       </c>
       <c r="F2">
-        <v>189743000</v>
+        <v>190000000</v>
       </c>
       <c r="G2">
         <v>199017000</v>
@@ -733,23 +844,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>1902472000</v>
+        <v>1902000000</v>
       </c>
       <c r="C3">
-        <v>1835238000</v>
+        <v>1835000000</v>
       </c>
       <c r="D3">
-        <v>1754877000</v>
+        <v>1755000000</v>
       </c>
       <c r="E3">
-        <v>1746635000</v>
+        <v>1747000000</v>
       </c>
       <c r="F3">
-        <v>1764214000</v>
+        <v>1764000000</v>
       </c>
       <c r="G3">
         <v>1787931000</v>
@@ -855,23 +966,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>217818000</v>
+        <v>218000000</v>
       </c>
       <c r="C4">
-        <v>209569000</v>
+        <v>210000000</v>
       </c>
       <c r="D4">
-        <v>208302000</v>
+        <v>208000000</v>
       </c>
       <c r="E4">
-        <v>206839000</v>
+        <v>207000000</v>
       </c>
       <c r="F4">
-        <v>202824000</v>
+        <v>203000000</v>
       </c>
       <c r="G4">
         <v>195141000</v>
@@ -977,23 +1088,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>261698000</v>
+        <v>262000000</v>
       </c>
       <c r="C5">
-        <v>258760000</v>
+        <v>259000000</v>
       </c>
       <c r="D5">
-        <v>232724000</v>
+        <v>233000000</v>
       </c>
       <c r="E5">
-        <v>194781000</v>
+        <v>195000000</v>
       </c>
       <c r="F5">
-        <v>186518000</v>
+        <v>187000000</v>
       </c>
       <c r="G5">
         <v>183216000</v>
@@ -1099,23 +1210,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>2456559000</v>
+        <v>2457000000</v>
       </c>
       <c r="C6">
-        <v>2436225000</v>
+        <v>2436000000</v>
       </c>
       <c r="D6">
-        <v>2301902000</v>
+        <v>2302000000</v>
       </c>
       <c r="E6">
-        <v>2263556000</v>
+        <v>2264000000</v>
       </c>
       <c r="F6">
-        <v>2343299000</v>
+        <v>2343000000</v>
       </c>
       <c r="G6">
         <v>2365305000</v>
@@ -1221,23 +1332,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>5936398000</v>
+        <v>6394000000</v>
       </c>
       <c r="C7">
-        <v>5970719000</v>
+        <v>6332000000</v>
       </c>
       <c r="D7">
-        <v>5918467000</v>
+        <v>6287000000</v>
       </c>
       <c r="E7">
-        <v>5874275000</v>
+        <v>6242000000</v>
       </c>
       <c r="F7">
-        <v>5687704000</v>
+        <v>5997000000</v>
       </c>
       <c r="G7">
         <v>5629897000</v>
@@ -1343,8 +1454,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>284000000</v>
@@ -1384,23 +1495,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>3874021000</v>
+        <v>3874000000</v>
       </c>
       <c r="C9">
-        <v>3912382000</v>
+        <v>3912000000</v>
       </c>
       <c r="D9">
-        <v>3949788000</v>
+        <v>3950000000</v>
       </c>
       <c r="E9">
-        <v>3962624000</v>
+        <v>4044000000</v>
       </c>
       <c r="F9">
-        <v>3888999000</v>
+        <v>3889000000</v>
       </c>
       <c r="G9">
         <v>3903266000</v>
@@ -1506,8 +1617,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>55789000</v>
@@ -1586,23 +1697,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>592588000</v>
+        <v>315000000</v>
       </c>
       <c r="C11">
-        <v>558250000</v>
+        <v>319000000</v>
       </c>
       <c r="D11">
-        <v>551509000</v>
+        <v>313000000</v>
       </c>
       <c r="E11">
-        <v>573379000</v>
+        <v>252000000</v>
       </c>
       <c r="F11">
-        <v>562152000</v>
+        <v>350000000</v>
       </c>
       <c r="G11">
         <v>557126000</v>
@@ -1708,8 +1819,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>10922340000</v>
@@ -1830,23 +1941,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>13378900000</v>
+        <v>13379000000</v>
       </c>
       <c r="C13">
-        <v>13296100000</v>
+        <v>13296000000</v>
       </c>
       <c r="D13">
-        <v>13144450000</v>
+        <v>13144000000</v>
       </c>
       <c r="E13">
-        <v>13093540000</v>
+        <v>13094000000</v>
       </c>
       <c r="F13">
-        <v>12846850000</v>
+        <v>12847000000</v>
       </c>
       <c r="G13">
         <v>12812630000</v>
@@ -1952,23 +2063,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>1795004000</v>
+        <v>1666000000</v>
       </c>
       <c r="C14">
-        <v>1861467000</v>
+        <v>1732000000</v>
       </c>
       <c r="D14">
-        <v>1976389000</v>
+        <v>1847000000</v>
       </c>
       <c r="E14">
-        <v>1860496000</v>
+        <v>1786000000</v>
       </c>
       <c r="F14">
-        <v>1845465000</v>
+        <v>1845000000</v>
       </c>
       <c r="G14">
         <v>1765773000</v>
@@ -2074,8 +2185,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E15">
         <v>1201590000</v>
@@ -2106,23 +2217,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>66307000</v>
+        <v>136000000</v>
       </c>
       <c r="C16">
-        <v>66205000</v>
+        <v>130000000</v>
       </c>
       <c r="D16">
-        <v>48486000</v>
+        <v>114000000</v>
       </c>
       <c r="E16">
-        <v>48409000</v>
+        <v>113000000</v>
       </c>
       <c r="F16">
-        <v>44961000</v>
+        <v>106000000</v>
       </c>
       <c r="G16">
         <v>107370000</v>
@@ -2228,8 +2339,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>7743000</v>
@@ -2350,8 +2461,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>129000000</v>
@@ -2366,7 +2477,7 @@
         <v>74000000</v>
       </c>
       <c r="F18">
-        <v>1375000</v>
+        <v>1000000</v>
       </c>
       <c r="G18">
         <v>1757000</v>
@@ -2406,23 +2517,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>1939200000</v>
+        <v>1939000000</v>
       </c>
       <c r="C19">
-        <v>1991698000</v>
+        <v>1992000000</v>
       </c>
       <c r="D19">
-        <v>2146216000</v>
+        <v>2146000000</v>
       </c>
       <c r="E19">
-        <v>1984109000</v>
+        <v>1984000000</v>
       </c>
       <c r="F19">
-        <v>1968817000</v>
+        <v>1969000000</v>
       </c>
       <c r="G19">
         <v>1968810000</v>
@@ -2528,23 +2639,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>4638356000</v>
+        <v>5031000000</v>
       </c>
       <c r="C20">
-        <v>4599204000</v>
+        <v>4899000000</v>
       </c>
       <c r="D20">
-        <v>4250689000</v>
+        <v>4556000000</v>
       </c>
       <c r="E20">
-        <v>4141879000</v>
+        <v>4447000000</v>
       </c>
       <c r="F20">
-        <v>3709316000</v>
+        <v>3960000000</v>
       </c>
       <c r="G20">
         <v>3486222000</v>
@@ -2650,8 +2761,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>-56000000</v>
@@ -2772,8 +2883,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>4563000</v>
@@ -2894,23 +3005,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>500119000</v>
+        <v>500000000</v>
       </c>
       <c r="C23">
-        <v>496639000</v>
+        <v>497000000</v>
       </c>
       <c r="D23">
-        <v>475006000</v>
+        <v>475000000</v>
       </c>
       <c r="E23">
-        <v>464759000</v>
+        <v>465000000</v>
       </c>
       <c r="F23">
-        <v>545282000</v>
+        <v>545000000</v>
       </c>
       <c r="G23">
         <v>522007000</v>
@@ -3016,8 +3127,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>5535620000</v>
@@ -3138,23 +3249,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>7474820000</v>
+        <v>7470000000</v>
       </c>
       <c r="C25">
-        <v>7392187000</v>
+        <v>7388000000</v>
       </c>
       <c r="D25">
-        <v>7181868000</v>
+        <v>7178000000</v>
       </c>
       <c r="E25">
-        <v>6900490000</v>
+        <v>6895000000</v>
       </c>
       <c r="F25">
-        <v>6479055000</v>
+        <v>6474000000</v>
       </c>
       <c r="G25">
         <v>6240555000</v>
@@ -3260,23 +3371,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>718000</v>
+        <v>1000000</v>
       </c>
       <c r="C26">
-        <v>733000</v>
+        <v>1000000</v>
       </c>
       <c r="D26">
-        <v>749000</v>
+        <v>1000000</v>
       </c>
       <c r="E26">
-        <v>771000</v>
+        <v>1000000</v>
       </c>
       <c r="F26">
-        <v>805000</v>
+        <v>1000000</v>
       </c>
       <c r="G26">
         <v>833000</v>
@@ -3328,23 +3439,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>6442418000</v>
+        <v>5853000000</v>
       </c>
       <c r="C27">
-        <v>6404660000</v>
+        <v>5829000000</v>
       </c>
       <c r="D27">
-        <v>6414808000</v>
+        <v>5854000000</v>
       </c>
       <c r="E27">
-        <v>6604089000</v>
+        <v>6059000000</v>
       </c>
       <c r="F27">
-        <v>6776168000</v>
+        <v>6246000000</v>
       </c>
       <c r="G27">
         <v>6956520000</v>
@@ -3396,8 +3507,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>-589805000</v>
@@ -3518,23 +3629,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>5904080000</v>
+        <v>5855000000</v>
       </c>
       <c r="C29">
-        <v>5903916000</v>
+        <v>5815000000</v>
       </c>
       <c r="D29">
-        <v>5962578000</v>
+        <v>5868000000</v>
       </c>
       <c r="E29">
-        <v>6193053000</v>
+        <v>6090000000</v>
       </c>
       <c r="F29">
-        <v>6367798000</v>
+        <v>6274000000</v>
       </c>
       <c r="G29">
         <v>6572080000</v>
@@ -3640,23 +3751,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>5904080000</v>
+        <v>5855000000</v>
       </c>
       <c r="C30">
-        <v>5903916000</v>
+        <v>5815000000</v>
       </c>
       <c r="D30">
-        <v>5962578000</v>
+        <v>5868000000</v>
       </c>
       <c r="E30">
-        <v>6193053000</v>
+        <v>6090000000</v>
       </c>
       <c r="F30">
-        <v>6367798000</v>
+        <v>6274000000</v>
       </c>
       <c r="G30">
         <v>6572080000</v>
@@ -3762,8 +3873,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>13378900000</v>
@@ -3884,8 +3995,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>71410000</v>
@@ -4006,8 +4117,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>2030060000</v>
@@ -4128,23 +4239,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>4630092000</v>
+        <v>5092000000</v>
       </c>
       <c r="C34">
-        <v>4532751000</v>
+        <v>4896000000</v>
       </c>
       <c r="D34">
-        <v>4193176000</v>
+        <v>4564000000</v>
       </c>
       <c r="E34">
-        <v>4074987000</v>
+        <v>4445000000</v>
       </c>
       <c r="F34">
-        <v>3564534000</v>
+        <v>3876000000</v>
       </c>
       <c r="G34">
         <v>3394575000</v>
@@ -4250,23 +4361,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>4704663000</v>
+        <v>5167000000</v>
       </c>
       <c r="C35">
-        <v>4665409000</v>
+        <v>5029000000</v>
       </c>
       <c r="D35">
-        <v>4299175000</v>
+        <v>4670000000</v>
       </c>
       <c r="E35">
-        <v>4190288000</v>
+        <v>4560000000</v>
       </c>
       <c r="F35">
-        <v>3754277000</v>
+        <v>4066000000</v>
       </c>
       <c r="G35">
         <v>3593592000</v>
